--- a/iterationsNORMAL/iter_5/data.xlsx
+++ b/iterationsNORMAL/iter_5/data.xlsx
@@ -453,1652 +453,1652 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-32.54279311156932</v>
+        <v>22.78818765157672</v>
       </c>
       <c r="B2" t="n">
-        <v>-32.4512919753182</v>
+        <v>23.65063042066411</v>
       </c>
       <c r="C2" t="n">
-        <v>2.781744461838108</v>
+        <v>-37.39277079306493</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-17.78204886936559</v>
+        <v>26.14915841104708</v>
       </c>
       <c r="B3" t="n">
-        <v>92.91943810394061</v>
+        <v>13.0707767413595</v>
       </c>
       <c r="C3" t="n">
-        <v>-25.96266786059856</v>
+        <v>-40.66049092960304</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-51.02502818759874</v>
+        <v>-22.46692049737424</v>
       </c>
       <c r="B4" t="n">
-        <v>-36.1424604437882</v>
+        <v>9.512352953631533</v>
       </c>
       <c r="C4" t="n">
-        <v>20.81120482646829</v>
+        <v>-18.99571739924208</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-14.15281780222431</v>
+        <v>22.42685738631045</v>
       </c>
       <c r="B5" t="n">
-        <v>-20.31650652444799</v>
+        <v>-19.82269420411959</v>
       </c>
       <c r="C5" t="n">
-        <v>-26.32689666113072</v>
+        <v>-21.38989051012938</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-23.01119268615821</v>
+        <v>19.6189539073488</v>
       </c>
       <c r="B6" t="n">
-        <v>30.66810142527751</v>
+        <v>31.57870662902983</v>
       </c>
       <c r="C6" t="n">
-        <v>-25.43929041881685</v>
+        <v>-30.73270283223245</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-36.954102708882</v>
+        <v>-44.44198514596675</v>
       </c>
       <c r="B7" t="n">
-        <v>-33.35198845300025</v>
+        <v>-18.17997648156565</v>
       </c>
       <c r="C7" t="n">
-        <v>8.69520063504104</v>
+        <v>-40.410818329678</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.03119786461495</v>
+        <v>-21.74227060883296</v>
       </c>
       <c r="B8" t="n">
-        <v>64.23224740904332</v>
+        <v>27.41173908019148</v>
       </c>
       <c r="C8" t="n">
-        <v>22.46690992641408</v>
+        <v>-22.74327302417617</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>21.83988731144926</v>
+        <v>-35.15466162375552</v>
       </c>
       <c r="B9" t="n">
-        <v>40.51222285864002</v>
+        <v>29.91254444694708</v>
       </c>
       <c r="C9" t="n">
-        <v>-22.57528431954</v>
+        <v>11.33521374554481</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>53.99238173279716</v>
+        <v>11.68852967808878</v>
       </c>
       <c r="B10" t="n">
-        <v>-26.66682084977407</v>
+        <v>-28.68447492101948</v>
       </c>
       <c r="C10" t="n">
-        <v>-46.06690952440771</v>
+        <v>24.49613662751489</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-35.84444393282671</v>
+        <v>38.69150726191477</v>
       </c>
       <c r="B11" t="n">
-        <v>15.03939906791661</v>
+        <v>-27.1392999367752</v>
       </c>
       <c r="C11" t="n">
-        <v>-32.23609491299526</v>
+        <v>-10.62999026277475</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.76546022084619</v>
+        <v>-25.14580023123581</v>
       </c>
       <c r="B12" t="n">
-        <v>-38.2208833255834</v>
+        <v>-25.97369517761859</v>
       </c>
       <c r="C12" t="n">
-        <v>-25.2154995954152</v>
+        <v>15.44888149434783</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>40.42509406809408</v>
+        <v>-30.75555506301924</v>
       </c>
       <c r="B13" t="n">
-        <v>-31.1859916115554</v>
+        <v>14.13179763041235</v>
       </c>
       <c r="C13" t="n">
-        <v>-2.696578819075247</v>
+        <v>-22.52631999649991</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-20.81651430792936</v>
+        <v>-23.04533253763374</v>
       </c>
       <c r="B14" t="n">
-        <v>18.77802804682721</v>
+        <v>26.93877192458863</v>
       </c>
       <c r="C14" t="n">
-        <v>-28.58288255471031</v>
+        <v>39.81358099814418</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-16.84089655136589</v>
+        <v>19.96018181371853</v>
       </c>
       <c r="B15" t="n">
-        <v>14.84585551168902</v>
+        <v>26.94933901591888</v>
       </c>
       <c r="C15" t="n">
-        <v>-33.71646177228592</v>
+        <v>28.48230044241854</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-23.63386915839702</v>
+        <v>27.78829634334486</v>
       </c>
       <c r="B16" t="n">
-        <v>51.80729720877354</v>
+        <v>29.36603925923791</v>
       </c>
       <c r="C16" t="n">
-        <v>23.2679890247199</v>
+        <v>23.58080793692399</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-25.20131864805095</v>
+        <v>26.39507143677168</v>
       </c>
       <c r="B17" t="n">
-        <v>55.64950531876706</v>
+        <v>-20.01689833173671</v>
       </c>
       <c r="C17" t="n">
-        <v>-23.66789280783458</v>
+        <v>-33.91879355790733</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>24.81557107744339</v>
+        <v>25.65939225214036</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.035486857042121</v>
+        <v>-44.8699049883629</v>
       </c>
       <c r="C18" t="n">
-        <v>-23.48797215305799</v>
+        <v>-27.71850140559417</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>23.60193498449177</v>
+        <v>-13.07055190091986</v>
       </c>
       <c r="B19" t="n">
-        <v>1.155034226939432</v>
+        <v>-30.32117049602374</v>
       </c>
       <c r="C19" t="n">
-        <v>1.632496622763457</v>
+        <v>-19.38257143786035</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>21.86291268043166</v>
+        <v>-10.72551436561611</v>
       </c>
       <c r="B20" t="n">
-        <v>33.4530404952975</v>
+        <v>33.6512919320061</v>
       </c>
       <c r="C20" t="n">
-        <v>-19.33046309577562</v>
+        <v>16.6166803089627</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>27.5653330929445</v>
+        <v>-26.01412954304421</v>
       </c>
       <c r="B21" t="n">
-        <v>63.90120033571166</v>
+        <v>-19.06235927460225</v>
       </c>
       <c r="C21" t="n">
-        <v>-10.24574760465519</v>
+        <v>30.73231417638727</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-17.18535267192143</v>
+        <v>26.49146972264356</v>
       </c>
       <c r="B22" t="n">
-        <v>-6.152654720559356</v>
+        <v>19.98790510779893</v>
       </c>
       <c r="C22" t="n">
-        <v>44.15536857865128</v>
+        <v>21.58931414467024</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-28.61404573368946</v>
+        <v>-25.00104003800931</v>
       </c>
       <c r="B23" t="n">
-        <v>5.693962885884625</v>
+        <v>-21.91803253181871</v>
       </c>
       <c r="C23" t="n">
-        <v>-20.13686539408281</v>
+        <v>27.56862845715252</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>34.05445607836313</v>
+        <v>20.14219957853548</v>
       </c>
       <c r="B24" t="n">
-        <v>-31.83750095858104</v>
+        <v>19.04625622536591</v>
       </c>
       <c r="C24" t="n">
-        <v>-32.99701627924581</v>
+        <v>40.66391683534802</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>12.89036277237625</v>
+        <v>-35.30802679590933</v>
       </c>
       <c r="B25" t="n">
-        <v>-12.45226528775466</v>
+        <v>33.20852734431396</v>
       </c>
       <c r="C25" t="n">
-        <v>47.82282155650583</v>
+        <v>27.61836509615195</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-17.21504686895291</v>
+        <v>10.88432721647079</v>
       </c>
       <c r="B26" t="n">
-        <v>19.78982485689184</v>
+        <v>-29.45339792732376</v>
       </c>
       <c r="C26" t="n">
-        <v>1.156354034475226</v>
+        <v>-22.2496229947594</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-23.72154107352651</v>
+        <v>-9.883431647536543</v>
       </c>
       <c r="B27" t="n">
-        <v>-34.38568239815871</v>
+        <v>-19.32136480961307</v>
       </c>
       <c r="C27" t="n">
-        <v>-26.45397682847777</v>
+        <v>29.71935668437339</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>30.25465257448618</v>
+        <v>27.14856639071899</v>
       </c>
       <c r="B28" t="n">
-        <v>13.95499183510146</v>
+        <v>-20.09423647692106</v>
       </c>
       <c r="C28" t="n">
-        <v>-27.82745333143188</v>
+        <v>-29.05715911167992</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-26.10457074829802</v>
+        <v>-20.31214153683394</v>
       </c>
       <c r="B29" t="n">
-        <v>50.02382137527981</v>
+        <v>-27.8129688549941</v>
       </c>
       <c r="C29" t="n">
-        <v>51.24500382463204</v>
+        <v>-23.09614674900681</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>57.02877437147549</v>
+        <v>16.92270982923666</v>
       </c>
       <c r="B30" t="n">
-        <v>-28.93617921324564</v>
+        <v>-27.34952708477687</v>
       </c>
       <c r="C30" t="n">
-        <v>60.03399954879615</v>
+        <v>42.73348233529161</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>40.95239819383082</v>
+        <v>7.904501877796826</v>
       </c>
       <c r="B31" t="n">
-        <v>-29.67531217475092</v>
+        <v>-17.31287531840928</v>
       </c>
       <c r="C31" t="n">
-        <v>35.18789389778054</v>
+        <v>-19.92822824030277</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-46.65663673787149</v>
+        <v>-19.60745709431787</v>
       </c>
       <c r="B32" t="n">
-        <v>51.57608134560643</v>
+        <v>24.34722116945088</v>
       </c>
       <c r="C32" t="n">
-        <v>48.52016965732919</v>
+        <v>13.39357516664223</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-20.63751082274631</v>
+        <v>30.19334522562475</v>
       </c>
       <c r="B33" t="n">
-        <v>24.90000033495892</v>
+        <v>-26.59512774563498</v>
       </c>
       <c r="C33" t="n">
-        <v>-29.15485141813957</v>
+        <v>-21.91299388917195</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>30.86972680447141</v>
+        <v>-25.59222964075991</v>
       </c>
       <c r="B34" t="n">
-        <v>25.45487202222689</v>
+        <v>-19.45726324381927</v>
       </c>
       <c r="C34" t="n">
-        <v>-12.00202632707621</v>
+        <v>14.66077796692247</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>30.23724500359918</v>
+        <v>32.26338122710101</v>
       </c>
       <c r="B35" t="n">
-        <v>39.66717091851359</v>
+        <v>19.2933959851092</v>
       </c>
       <c r="C35" t="n">
-        <v>38.78140262429614</v>
+        <v>-30.63668468332231</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-2.943930834447825</v>
+        <v>3.924439719134562</v>
       </c>
       <c r="B36" t="n">
-        <v>65.34869725147529</v>
+        <v>-24.73380948311477</v>
       </c>
       <c r="C36" t="n">
-        <v>33.01800445073501</v>
+        <v>-27.55668097290658</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>58.79246738808935</v>
+        <v>-30.97731183304179</v>
       </c>
       <c r="B37" t="n">
-        <v>1.037411081551832</v>
+        <v>7.26883323679884</v>
       </c>
       <c r="C37" t="n">
-        <v>73.97945909288428</v>
+        <v>25.30424053369339</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-14.5677818707735</v>
+        <v>34.21298560244251</v>
       </c>
       <c r="B38" t="n">
-        <v>-27.94891565041748</v>
+        <v>18.45407465495015</v>
       </c>
       <c r="C38" t="n">
-        <v>-28.30955915028139</v>
+        <v>-24.39609869754907</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-19.14394504969357</v>
+        <v>-17.88686208836928</v>
       </c>
       <c r="B39" t="n">
-        <v>-31.55330333507408</v>
+        <v>30.4792022635928</v>
       </c>
       <c r="C39" t="n">
-        <v>46.35028199762878</v>
+        <v>-28.77375910743025</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6.671192470673867</v>
+        <v>41.91300495214562</v>
       </c>
       <c r="B40" t="n">
-        <v>30.29545352779503</v>
+        <v>-21.4574262869719</v>
       </c>
       <c r="C40" t="n">
-        <v>56.69234103799038</v>
+        <v>-31.15099310112633</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>29.8414216105837</v>
+        <v>-36.00505147763088</v>
       </c>
       <c r="B41" t="n">
-        <v>66.38240238452744</v>
+        <v>26.9197612624003</v>
       </c>
       <c r="C41" t="n">
-        <v>59.11379694107523</v>
+        <v>23.32201533559137</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-29.00585438363845</v>
+        <v>-13.07402332338877</v>
       </c>
       <c r="B42" t="n">
-        <v>36.37522735597774</v>
+        <v>-11.19251226268722</v>
       </c>
       <c r="C42" t="n">
-        <v>1.897296298025067</v>
+        <v>34.39005670204546</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-34.35526660139487</v>
+        <v>-27.74832418323321</v>
       </c>
       <c r="B43" t="n">
-        <v>-13.47092419123883</v>
+        <v>10.13518394882674</v>
       </c>
       <c r="C43" t="n">
-        <v>-31.24601979234968</v>
+        <v>31.53624820042775</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>37.78693904068881</v>
+        <v>22.57587790808993</v>
       </c>
       <c r="B44" t="n">
-        <v>-34.58201616184662</v>
+        <v>19.09908398509418</v>
       </c>
       <c r="C44" t="n">
-        <v>-37.45213586969831</v>
+        <v>31.50808400504227</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-24.40274408338994</v>
+        <v>-31.52024573294016</v>
       </c>
       <c r="B45" t="n">
-        <v>66.28227529645248</v>
+        <v>-23.1463928433939</v>
       </c>
       <c r="C45" t="n">
-        <v>47.42103312826373</v>
+        <v>9.902881285348325</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-14.84269993166511</v>
+        <v>-34.25623266355675</v>
       </c>
       <c r="B46" t="n">
-        <v>-21.33620553174035</v>
+        <v>18.96565551346182</v>
       </c>
       <c r="C46" t="n">
-        <v>-28.28203736165763</v>
+        <v>25.22982806374637</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-8.362240291029082</v>
+        <v>40.01215941248412</v>
       </c>
       <c r="B47" t="n">
-        <v>38.40756146115465</v>
+        <v>-33.02360762358701</v>
       </c>
       <c r="C47" t="n">
-        <v>54.69761300670117</v>
+        <v>25.40841013994353</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>18.35108011295631</v>
+        <v>-12.84470980933001</v>
       </c>
       <c r="B48" t="n">
-        <v>-6.563139898749726</v>
+        <v>-29.32207251874663</v>
       </c>
       <c r="C48" t="n">
-        <v>25.82239776294427</v>
+        <v>-29.97992031826863</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>86.99431749723726</v>
+        <v>-35.75818285638918</v>
       </c>
       <c r="B49" t="n">
-        <v>11.58924572522589</v>
+        <v>-14.07914959327218</v>
       </c>
       <c r="C49" t="n">
-        <v>-23.4865363557059</v>
+        <v>32.36345217374445</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-26.8246556969455</v>
+        <v>15.86103195727709</v>
       </c>
       <c r="B50" t="n">
-        <v>10.09290600710319</v>
+        <v>-29.42381039541998</v>
       </c>
       <c r="C50" t="n">
-        <v>35.20368544641076</v>
+        <v>-22.92990836961254</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>26.58959773430899</v>
+        <v>28.85955338223765</v>
       </c>
       <c r="B51" t="n">
-        <v>27.48975694178354</v>
+        <v>29.21146973232652</v>
       </c>
       <c r="C51" t="n">
-        <v>-33.2576269174499</v>
+        <v>-35.97191247387919</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>43.46396111389528</v>
+        <v>-9.577367820148217</v>
       </c>
       <c r="B52" t="n">
-        <v>-44.87765862607633</v>
+        <v>19.215371544349</v>
       </c>
       <c r="C52" t="n">
-        <v>-24.12377370311972</v>
+        <v>31.4716837487307</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>40.78156101718661</v>
+        <v>22.44327514944408</v>
       </c>
       <c r="B53" t="n">
-        <v>44.91182641344738</v>
+        <v>2.448857714728147</v>
       </c>
       <c r="C53" t="n">
-        <v>39.76073305037979</v>
+        <v>37.52590703706953</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-28.50635392995533</v>
+        <v>-14.03030443550333</v>
       </c>
       <c r="B54" t="n">
-        <v>-30.80037108547445</v>
+        <v>-30.52803784810649</v>
       </c>
       <c r="C54" t="n">
-        <v>3.662886864245344</v>
+        <v>-16.69255262601498</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>30.60139396660837</v>
+        <v>-31.64869486043912</v>
       </c>
       <c r="B55" t="n">
-        <v>3.948613814472373</v>
+        <v>-29.28684465529186</v>
       </c>
       <c r="C55" t="n">
-        <v>-25.40208489997475</v>
+        <v>-29.50833343638062</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-31.2970082414266</v>
+        <v>-25.01038147299136</v>
       </c>
       <c r="B56" t="n">
-        <v>-24.46785428939409</v>
+        <v>27.32327880717412</v>
       </c>
       <c r="C56" t="n">
-        <v>-34.97231485474292</v>
+        <v>28.20132422475878</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-15.98489156910858</v>
+        <v>44.47354798190761</v>
       </c>
       <c r="B57" t="n">
-        <v>-32.47164331636845</v>
+        <v>-32.82982820750806</v>
       </c>
       <c r="C57" t="n">
-        <v>62.72729718774796</v>
+        <v>30.60196201892428</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-25.5214022734034</v>
+        <v>-25.81756466986447</v>
       </c>
       <c r="B58" t="n">
-        <v>-26.7149444574368</v>
+        <v>13.58395793788389</v>
       </c>
       <c r="C58" t="n">
-        <v>14.24051044174645</v>
+        <v>-26.58995668964995</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-25.74456061678958</v>
+        <v>-15.648554468101</v>
       </c>
       <c r="B59" t="n">
-        <v>-19.78080822128021</v>
+        <v>26.92544950739986</v>
       </c>
       <c r="C59" t="n">
-        <v>-42.32182969081452</v>
+        <v>35.49245146337901</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>22.78937021013975</v>
+        <v>18.2364051078735</v>
       </c>
       <c r="B60" t="n">
-        <v>27.51270959326783</v>
+        <v>28.65550507741636</v>
       </c>
       <c r="C60" t="n">
-        <v>-52.00794980645274</v>
+        <v>33.37305967103728</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-32.90485603957011</v>
+        <v>17.68467163742179</v>
       </c>
       <c r="B61" t="n">
-        <v>24.62688288223263</v>
+        <v>30.35475451779702</v>
       </c>
       <c r="C61" t="n">
-        <v>39.07565844639437</v>
+        <v>-37.86051990389158</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>14.51764383918591</v>
+        <v>18.70656694497791</v>
       </c>
       <c r="B62" t="n">
-        <v>48.15771397785593</v>
+        <v>-13.52262535385221</v>
       </c>
       <c r="C62" t="n">
-        <v>-17.79905043747142</v>
+        <v>-22.06420872337997</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>34.06774836463457</v>
+        <v>-23.65496487656586</v>
       </c>
       <c r="B63" t="n">
-        <v>61.55233617302107</v>
+        <v>25.36922786443353</v>
       </c>
       <c r="C63" t="n">
-        <v>31.20192465381317</v>
+        <v>37.81978538531642</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-24.17124232823246</v>
+        <v>-29.4068588106967</v>
       </c>
       <c r="B64" t="n">
-        <v>-16.78786572919224</v>
+        <v>-11.41522834565566</v>
       </c>
       <c r="C64" t="n">
-        <v>24.54430381274227</v>
+        <v>-23.16661741483241</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>41.82363121733901</v>
+        <v>-17.65475322482445</v>
       </c>
       <c r="B65" t="n">
-        <v>12.21364435385038</v>
+        <v>27.8071411866017</v>
       </c>
       <c r="C65" t="n">
-        <v>-27.12915984058456</v>
+        <v>24.36798086509623</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-24.58621554066834</v>
+        <v>-30.13123402236276</v>
       </c>
       <c r="B66" t="n">
-        <v>-23.24223395256769</v>
+        <v>21.45078009977309</v>
       </c>
       <c r="C66" t="n">
-        <v>-25.54177402594151</v>
+        <v>29.43317298073123</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>19.45901851287458</v>
+        <v>36.87588690322497</v>
       </c>
       <c r="B67" t="n">
-        <v>42.6822052546031</v>
+        <v>-29.18828859047317</v>
       </c>
       <c r="C67" t="n">
-        <v>-45.29739001940227</v>
+        <v>-28.07151149035005</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>39.39516266503865</v>
+        <v>27.4055061460414</v>
       </c>
       <c r="B68" t="n">
-        <v>-10.38498874384831</v>
+        <v>-30.01057085417667</v>
       </c>
       <c r="C68" t="n">
-        <v>52.87204018598283</v>
+        <v>-17.86794808355793</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-35.47633642426596</v>
+        <v>24.12481242286982</v>
       </c>
       <c r="B69" t="n">
-        <v>-20.04715811691917</v>
+        <v>19.41619262053631</v>
       </c>
       <c r="C69" t="n">
-        <v>69.00890645351485</v>
+        <v>36.8975261679315</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-31.21832807104565</v>
+        <v>-21.84965750869895</v>
       </c>
       <c r="B70" t="n">
-        <v>-27.01397275110538</v>
+        <v>-4.944654795781033</v>
       </c>
       <c r="C70" t="n">
-        <v>-49.31485407288892</v>
+        <v>18.06423734800278</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>25.37246188540863</v>
+        <v>19.03726975058902</v>
       </c>
       <c r="B71" t="n">
-        <v>-6.133216877927651</v>
+        <v>17.60488354473688</v>
       </c>
       <c r="C71" t="n">
-        <v>-10.91932419220049</v>
+        <v>13.8051264822453</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-18.66259874153067</v>
+        <v>-26.2219794869922</v>
       </c>
       <c r="B72" t="n">
-        <v>-33.08916798147266</v>
+        <v>36.9914668685152</v>
       </c>
       <c r="C72" t="n">
-        <v>62.40391784995088</v>
+        <v>25.96970517911026</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-3.925727504817554</v>
+        <v>-14.05586752277302</v>
       </c>
       <c r="B73" t="n">
-        <v>-29.65961931390735</v>
+        <v>-29.88801737365561</v>
       </c>
       <c r="C73" t="n">
-        <v>22.76046366454619</v>
+        <v>13.05066367431144</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>6.579413085453067</v>
+        <v>-39.81701330065164</v>
       </c>
       <c r="B74" t="n">
-        <v>-33.89760659492894</v>
+        <v>-40.30805077236245</v>
       </c>
       <c r="C74" t="n">
-        <v>-13.86032709418841</v>
+        <v>24.57125242416464</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>42.44756597310935</v>
+        <v>-17.69615997536055</v>
       </c>
       <c r="B75" t="n">
-        <v>-20.25389546172226</v>
+        <v>14.7669289295921</v>
       </c>
       <c r="C75" t="n">
-        <v>-28.58036256968271</v>
+        <v>-18.84983994578352</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-16.53935751499794</v>
+        <v>22.68283862319077</v>
       </c>
       <c r="B76" t="n">
-        <v>4.330827711113814</v>
+        <v>-15.83820039435919</v>
       </c>
       <c r="C76" t="n">
-        <v>15.72060121627446</v>
+        <v>11.62728524821312</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.5456817301040798</v>
+        <v>23.55221256959087</v>
       </c>
       <c r="B77" t="n">
-        <v>64.73048114132629</v>
+        <v>-25.14631555815667</v>
       </c>
       <c r="C77" t="n">
-        <v>8.352971593772343</v>
+        <v>-32.30314133759559</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-18.24707768128622</v>
+        <v>32.17553307502365</v>
       </c>
       <c r="B78" t="n">
-        <v>-21.48877828002353</v>
+        <v>18.67643213672883</v>
       </c>
       <c r="C78" t="n">
-        <v>0.9884525268306628</v>
+        <v>29.40692449258015</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-27.56620180791343</v>
+        <v>-26.53330957044245</v>
       </c>
       <c r="B79" t="n">
-        <v>12.05131216080936</v>
+        <v>-16.05369763251753</v>
       </c>
       <c r="C79" t="n">
-        <v>-27.08439103793552</v>
+        <v>45.08130898457005</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-30.76321277797951</v>
+        <v>33.53040297734298</v>
       </c>
       <c r="B80" t="n">
-        <v>15.63826099543198</v>
+        <v>39.13796516933108</v>
       </c>
       <c r="C80" t="n">
-        <v>55.6637078791379</v>
+        <v>31.9780104013172</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>13.38638461136503</v>
+        <v>37.43158417208752</v>
       </c>
       <c r="B81" t="n">
-        <v>-27.77860514650611</v>
+        <v>33.47076202298527</v>
       </c>
       <c r="C81" t="n">
-        <v>63.04966668278469</v>
+        <v>-36.90123317547216</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>11.9999142503012</v>
+        <v>-8.437506554276009</v>
       </c>
       <c r="B82" t="n">
-        <v>-28.10206956965748</v>
+        <v>-20.89289425111023</v>
       </c>
       <c r="C82" t="n">
-        <v>30.4905676446986</v>
+        <v>-32.77514570926792</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-18.87842912260844</v>
+        <v>25.24125246958464</v>
       </c>
       <c r="B83" t="n">
-        <v>17.12283485323576</v>
+        <v>-25.71255003169715</v>
       </c>
       <c r="C83" t="n">
-        <v>35.56208948192531</v>
+        <v>26.25644815560016</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-13.36070106350936</v>
+        <v>-12.01494222374354</v>
       </c>
       <c r="B84" t="n">
-        <v>-18.3799180519366</v>
+        <v>12.38148014058541</v>
       </c>
       <c r="C84" t="n">
-        <v>-41.29072405741621</v>
+        <v>-33.25751835647478</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-25.49102005790193</v>
+        <v>21.18814495075505</v>
       </c>
       <c r="B85" t="n">
-        <v>-23.08666996798405</v>
+        <v>-34.2929917209018</v>
       </c>
       <c r="C85" t="n">
-        <v>46.4630279557027</v>
+        <v>-23.95570254634894</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-28.13971652701285</v>
+        <v>-12.2868890283974</v>
       </c>
       <c r="B86" t="n">
-        <v>-22.51266135725108</v>
+        <v>-10.11409819814523</v>
       </c>
       <c r="C86" t="n">
-        <v>-26.24747675775006</v>
+        <v>-38.01836242315662</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-41.61354456205476</v>
+        <v>40.47471884328844</v>
       </c>
       <c r="B87" t="n">
-        <v>-29.83701386523737</v>
+        <v>-16.10017130232475</v>
       </c>
       <c r="C87" t="n">
-        <v>50.62863306994534</v>
+        <v>35.07637758485853</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>-16.62510965396448</v>
+        <v>26.83581912430784</v>
       </c>
       <c r="B88" t="n">
-        <v>-19.86572157775898</v>
+        <v>-16.80635215190598</v>
       </c>
       <c r="C88" t="n">
-        <v>39.32547563347136</v>
+        <v>30.33477372359593</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>24.11725194473399</v>
+        <v>34.49212790177293</v>
       </c>
       <c r="B89" t="n">
-        <v>-11.61308247123631</v>
+        <v>-27.15463649381758</v>
       </c>
       <c r="C89" t="n">
-        <v>-30.63824826403982</v>
+        <v>9.590582016568838</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-0.137215503427802</v>
+        <v>25.29495719243852</v>
       </c>
       <c r="B90" t="n">
-        <v>-23.76772223922059</v>
+        <v>-23.24927580463258</v>
       </c>
       <c r="C90" t="n">
-        <v>51.66342367529714</v>
+        <v>30.48214597491966</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-31.51340253952101</v>
+        <v>27.26537050999929</v>
       </c>
       <c r="B91" t="n">
-        <v>-2.514007446958684</v>
+        <v>15.36918010145812</v>
       </c>
       <c r="C91" t="n">
-        <v>20.57744053187796</v>
+        <v>22.88340927624979</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-33.40508355480933</v>
+        <v>-35.84250806500117</v>
       </c>
       <c r="B92" t="n">
-        <v>22.59380243972229</v>
+        <v>32.78494438571673</v>
       </c>
       <c r="C92" t="n">
-        <v>84.36933917360331</v>
+        <v>28.1511802041812</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-0.9918817745461033</v>
+        <v>-14.31969019241215</v>
       </c>
       <c r="B93" t="n">
-        <v>26.65192017788382</v>
+        <v>37.13589039138851</v>
       </c>
       <c r="C93" t="n">
-        <v>-29.1843008063235</v>
+        <v>-30.4346754802195</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-18.65268928145505</v>
+        <v>21.82942805387752</v>
       </c>
       <c r="B94" t="n">
-        <v>-25.38675728535735</v>
+        <v>23.94740320284007</v>
       </c>
       <c r="C94" t="n">
-        <v>-48.1900065833516</v>
+        <v>-27.0564203656221</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-40.7371912135652</v>
+        <v>-28.89122536081907</v>
       </c>
       <c r="B95" t="n">
-        <v>-25.99726653805386</v>
+        <v>-33.32186467014418</v>
       </c>
       <c r="C95" t="n">
-        <v>38.39522600591198</v>
+        <v>-20.15509672979497</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>46.57526804957391</v>
+        <v>-39.07987705301577</v>
       </c>
       <c r="B96" t="n">
-        <v>26.26824273158446</v>
+        <v>-40.46114477346475</v>
       </c>
       <c r="C96" t="n">
-        <v>0.06727743956901408</v>
+        <v>-20.29861278547001</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-12.95580177001258</v>
+        <v>-22.59911215776739</v>
       </c>
       <c r="B97" t="n">
-        <v>0.3211114803797162</v>
+        <v>-9.874309697742147</v>
       </c>
       <c r="C97" t="n">
-        <v>58.95812793164612</v>
+        <v>20.40600722123522</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-17.4753857944656</v>
+        <v>38.7453316156387</v>
       </c>
       <c r="B98" t="n">
-        <v>-27.03161311535803</v>
+        <v>-15.72320842315685</v>
       </c>
       <c r="C98" t="n">
-        <v>-13.86827802482523</v>
+        <v>-27.38590730136873</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>26.97815124098055</v>
+        <v>16.39207150329022</v>
       </c>
       <c r="B99" t="n">
-        <v>-26.1360906614733</v>
+        <v>33.94811580522762</v>
       </c>
       <c r="C99" t="n">
-        <v>-35.27453592817625</v>
+        <v>19.64280662782176</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-44.28690949110747</v>
+        <v>-24.10983328015011</v>
       </c>
       <c r="B100" t="n">
-        <v>10.56374665216291</v>
+        <v>-27.34469840408178</v>
       </c>
       <c r="C100" t="n">
-        <v>-26.89765846418658</v>
+        <v>-24.30285531146527</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>63.81063875218426</v>
+        <v>35.14282404575872</v>
       </c>
       <c r="B101" t="n">
-        <v>-2.851490284743027</v>
+        <v>36.18085887245567</v>
       </c>
       <c r="C101" t="n">
-        <v>-21.31790304042616</v>
+        <v>25.03352494263138</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>34.12932928586473</v>
+        <v>-36.49134408816359</v>
       </c>
       <c r="B102" t="n">
-        <v>56.4337692496648</v>
+        <v>-30.80170608115673</v>
       </c>
       <c r="C102" t="n">
-        <v>38.26823270530906</v>
+        <v>37.67119624762625</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-14.92424703918352</v>
+        <v>-32.43332012124101</v>
       </c>
       <c r="B103" t="n">
-        <v>-28.82140304159462</v>
+        <v>-19.22074993318885</v>
       </c>
       <c r="C103" t="n">
-        <v>-9.705889006110032</v>
+        <v>-20.34126562137687</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>9.11940307586643</v>
+        <v>-24.97238365324589</v>
       </c>
       <c r="B104" t="n">
-        <v>5.497187988702721</v>
+        <v>22.47552789651032</v>
       </c>
       <c r="C104" t="n">
-        <v>-36.03427210453794</v>
+        <v>-19.55747230369354</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>5.146328227839235</v>
+        <v>-29.67166365050484</v>
       </c>
       <c r="B105" t="n">
-        <v>31.21880997836719</v>
+        <v>-20.07195456903218</v>
       </c>
       <c r="C105" t="n">
-        <v>15.01084765607993</v>
+        <v>22.04562029846116</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-26.60312168224321</v>
+        <v>-14.12787829020877</v>
       </c>
       <c r="B106" t="n">
-        <v>-30.43983661959979</v>
+        <v>-23.857663703095</v>
       </c>
       <c r="C106" t="n">
-        <v>-8.640650802743785</v>
+        <v>27.23971630384393</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>15.61639819800191</v>
+        <v>12.97845680075188</v>
       </c>
       <c r="B107" t="n">
-        <v>-20.09860284037875</v>
+        <v>-8.685734727191253</v>
       </c>
       <c r="C107" t="n">
-        <v>54.35233600460388</v>
+        <v>-31.00193734892734</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>3.414722179133943</v>
+        <v>27.0079800726895</v>
       </c>
       <c r="B108" t="n">
-        <v>-28.40912872022374</v>
+        <v>25.2366058939967</v>
       </c>
       <c r="C108" t="n">
-        <v>1.259794969393107</v>
+        <v>-30.89918652632208</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>32.87445082769053</v>
+        <v>-32.69007712095102</v>
       </c>
       <c r="B109" t="n">
-        <v>64.83940717891979</v>
+        <v>-25.66508044873966</v>
       </c>
       <c r="C109" t="n">
-        <v>49.69262171873269</v>
+        <v>-13.61668657986426</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-22.88076268425453</v>
+        <v>0.8957117733414151</v>
       </c>
       <c r="B110" t="n">
-        <v>-7.086659161638811</v>
+        <v>-25.08794083068465</v>
       </c>
       <c r="C110" t="n">
-        <v>-36.10172933192805</v>
+        <v>-29.86993722292929</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>17.77446904513284</v>
+        <v>-24.74955168920725</v>
       </c>
       <c r="B111" t="n">
-        <v>17.44615706468853</v>
+        <v>19.48984751672721</v>
       </c>
       <c r="C111" t="n">
-        <v>-17.41936032246002</v>
+        <v>15.31791463192502</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-7.460230110941767</v>
+        <v>22.82007690273792</v>
       </c>
       <c r="B112" t="n">
-        <v>-32.24446544150391</v>
+        <v>-17.24996853655987</v>
       </c>
       <c r="C112" t="n">
-        <v>8.232999436494024</v>
+        <v>28.15118974352451</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>22.53985923136921</v>
+        <v>-17.7971946997444</v>
       </c>
       <c r="B113" t="n">
-        <v>-14.11041039515188</v>
+        <v>21.82024194667544</v>
       </c>
       <c r="C113" t="n">
-        <v>-19.16765455993961</v>
+        <v>-47.31175957432609</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-15.68921338778725</v>
+        <v>27.67876039272313</v>
       </c>
       <c r="B114" t="n">
-        <v>-39.2413125086627</v>
+        <v>-18.24111751238448</v>
       </c>
       <c r="C114" t="n">
-        <v>117.8683190929426</v>
+        <v>-26.42169900550936</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>27.18500874955148</v>
+        <v>-34.62254254020628</v>
       </c>
       <c r="B115" t="n">
-        <v>11.71972874166416</v>
+        <v>-33.54130059022597</v>
       </c>
       <c r="C115" t="n">
-        <v>52.76749240776337</v>
+        <v>-27.99147189360656</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>44.90672155978597</v>
+        <v>-26.23094718000384</v>
       </c>
       <c r="B116" t="n">
-        <v>8.205012711348239</v>
+        <v>-26.26254523900979</v>
       </c>
       <c r="C116" t="n">
-        <v>19.17867233509775</v>
+        <v>-23.07862717648078</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-22.46862398728917</v>
+        <v>-19.765273067791</v>
       </c>
       <c r="B117" t="n">
-        <v>67.91738142281581</v>
+        <v>-39.13023403206735</v>
       </c>
       <c r="C117" t="n">
-        <v>27.82338633755174</v>
+        <v>31.56588804739392</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-26.5123365548607</v>
+        <v>13.24865104332609</v>
       </c>
       <c r="B118" t="n">
-        <v>-24.5826882835653</v>
+        <v>32.41765026059254</v>
       </c>
       <c r="C118" t="n">
-        <v>28.62862703041794</v>
+        <v>-20.4739900130221</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-17.27595479772759</v>
+        <v>31.49040409350697</v>
       </c>
       <c r="B119" t="n">
-        <v>-5.107453347653915</v>
+        <v>-19.98574736448336</v>
       </c>
       <c r="C119" t="n">
-        <v>-15.24106148885139</v>
+        <v>-20.39210631972856</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-17.15780973920405</v>
+        <v>-28.60582533275501</v>
       </c>
       <c r="B120" t="n">
-        <v>62.46231892049278</v>
+        <v>-30.38623392588543</v>
       </c>
       <c r="C120" t="n">
-        <v>5.765852557388168</v>
+        <v>28.91286315352885</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1.018604660395918</v>
+        <v>-16.49821271715874</v>
       </c>
       <c r="B121" t="n">
-        <v>-25.89058769624194</v>
+        <v>43.13802160884708</v>
       </c>
       <c r="C121" t="n">
-        <v>58.93777611331251</v>
+        <v>-37.42270719630972</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-18.93418980466334</v>
+        <v>34.17634903291908</v>
       </c>
       <c r="B122" t="n">
-        <v>28.62385774591666</v>
+        <v>6.390132294986797</v>
       </c>
       <c r="C122" t="n">
-        <v>-2.358854811044448</v>
+        <v>27.35350569871188</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-5.104861434218678</v>
+        <v>9.940322288601735</v>
       </c>
       <c r="B123" t="n">
-        <v>17.56771695045346</v>
+        <v>18.57255597543359</v>
       </c>
       <c r="C123" t="n">
-        <v>-17.92731475376445</v>
+        <v>21.08633663756652</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-22.04431745375493</v>
+        <v>27.3298934146366</v>
       </c>
       <c r="B124" t="n">
-        <v>-15.67165728494929</v>
+        <v>7.794186731579829</v>
       </c>
       <c r="C124" t="n">
-        <v>-23.52000553207598</v>
+        <v>-6.385599035806217</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-20.97235330798289</v>
+        <v>15.10889497769472</v>
       </c>
       <c r="B125" t="n">
-        <v>-19.80088532723197</v>
+        <v>-12.18401115243236</v>
       </c>
       <c r="C125" t="n">
-        <v>-27.03195895663504</v>
+        <v>28.24254842713939</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-28.18920380945678</v>
+        <v>-27.61335746377697</v>
       </c>
       <c r="B126" t="n">
-        <v>62.0880936693231</v>
+        <v>-44.88906962576412</v>
       </c>
       <c r="C126" t="n">
-        <v>-41.53796627135484</v>
+        <v>33.07197886193993</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>49.36006612387821</v>
+        <v>31.05790803762615</v>
       </c>
       <c r="B127" t="n">
-        <v>-10.58470583472793</v>
+        <v>-21.10521228735119</v>
       </c>
       <c r="C127" t="n">
-        <v>26.2393397210082</v>
+        <v>-18.19843627687938</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>25.53726291172985</v>
+        <v>30.611994876409</v>
       </c>
       <c r="B128" t="n">
-        <v>-15.1438617410405</v>
+        <v>13.97182884045341</v>
       </c>
       <c r="C128" t="n">
-        <v>-11.85517901950151</v>
+        <v>-16.31785736398773</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>13.17135852097369</v>
+        <v>-27.07528306056868</v>
       </c>
       <c r="B129" t="n">
-        <v>-45.1768010451535</v>
+        <v>40.03195776611533</v>
       </c>
       <c r="C129" t="n">
-        <v>43.03420675533884</v>
+        <v>-28.09504529272693</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>16.19786580584093</v>
+        <v>-33.62895323562452</v>
       </c>
       <c r="B130" t="n">
-        <v>-26.17739972830341</v>
+        <v>33.50361390097829</v>
       </c>
       <c r="C130" t="n">
-        <v>-8.110702908185312</v>
+        <v>13.16815360899366</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-3.537653630847411</v>
+        <v>30.1241794162892</v>
       </c>
       <c r="B131" t="n">
-        <v>2.761617400883159</v>
+        <v>37.43176927148437</v>
       </c>
       <c r="C131" t="n">
-        <v>74.72994259199581</v>
+        <v>38.93932514389522</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-25.56093302182785</v>
+        <v>23.55138672164179</v>
       </c>
       <c r="B132" t="n">
-        <v>49.45891061107646</v>
+        <v>-17.33407448239449</v>
       </c>
       <c r="C132" t="n">
-        <v>-12.44701972982209</v>
+        <v>37.87938185536866</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-12.3317377258016</v>
+        <v>-31.49725377405666</v>
       </c>
       <c r="B133" t="n">
-        <v>-38.8359932578507</v>
+        <v>28.49854869083284</v>
       </c>
       <c r="C133" t="n">
-        <v>16.32170154863129</v>
+        <v>33.35966126124219</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>37.64646198687986</v>
+        <v>8.380418903609554</v>
       </c>
       <c r="B134" t="n">
-        <v>-35.50186230176021</v>
+        <v>40.59040813290665</v>
       </c>
       <c r="C134" t="n">
-        <v>-29.01630182232331</v>
+        <v>37.06416574731131</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>55.11174682288591</v>
+        <v>-34.59546189135896</v>
       </c>
       <c r="B135" t="n">
-        <v>1.680732558311047</v>
+        <v>14.95650520047672</v>
       </c>
       <c r="C135" t="n">
-        <v>-24.4356686993228</v>
+        <v>24.48705201723816</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>45.09628204829512</v>
+        <v>-28.21282788459844</v>
       </c>
       <c r="B136" t="n">
-        <v>45.61155134319503</v>
+        <v>16.88120858674973</v>
       </c>
       <c r="C136" t="n">
-        <v>50.64999347669641</v>
+        <v>32.42601989114724</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>53.88233350900489</v>
+        <v>25.418837978884</v>
       </c>
       <c r="B137" t="n">
-        <v>-12.08864439642852</v>
+        <v>27.14380013101479</v>
       </c>
       <c r="C137" t="n">
-        <v>35.03386631430644</v>
+        <v>25.7249954666305</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>70.03726440627453</v>
+        <v>39.15239670304862</v>
       </c>
       <c r="B138" t="n">
-        <v>45.25154901203845</v>
+        <v>19.17969631697578</v>
       </c>
       <c r="C138" t="n">
-        <v>-2.114682759026737</v>
+        <v>-32.07553505765211</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>28.07835647700961</v>
+        <v>-3.762719343118269</v>
       </c>
       <c r="B139" t="n">
-        <v>19.60156815011456</v>
+        <v>-22.65478759318766</v>
       </c>
       <c r="C139" t="n">
-        <v>13.55371285302502</v>
+        <v>20.90532966175881</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-28.42422360068869</v>
+        <v>-19.9015915688978</v>
       </c>
       <c r="B140" t="n">
-        <v>25.38357637575528</v>
+        <v>16.18346358226179</v>
       </c>
       <c r="C140" t="n">
-        <v>-26.72038184914615</v>
+        <v>40.62282729169634</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>-26.78995519245116</v>
+        <v>21.86307781596522</v>
       </c>
       <c r="B141" t="n">
-        <v>31.00964420064477</v>
+        <v>33.2283825221626</v>
       </c>
       <c r="C141" t="n">
-        <v>48.45072788198443</v>
+        <v>-27.90369191072444</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>3.869307087475569</v>
+        <v>21.68407812300829</v>
       </c>
       <c r="B142" t="n">
-        <v>15.04453890404687</v>
+        <v>8.480496973497514</v>
       </c>
       <c r="C142" t="n">
-        <v>17.51202474108891</v>
+        <v>-26.50964396623392</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>-22.33088564398422</v>
+        <v>-28.81223742074398</v>
       </c>
       <c r="B143" t="n">
-        <v>-22.18281712407038</v>
+        <v>-37.88834022507152</v>
       </c>
       <c r="C143" t="n">
-        <v>-12.27592531952751</v>
+        <v>-20.67642128657213</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>-19.88442596813696</v>
+        <v>33.87479793478707</v>
       </c>
       <c r="B144" t="n">
-        <v>25.37409346272579</v>
+        <v>21.04366973736223</v>
       </c>
       <c r="C144" t="n">
-        <v>-21.42596834075083</v>
+        <v>-23.25954455874052</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>67.95464605859092</v>
+        <v>25.93780555238279</v>
       </c>
       <c r="B145" t="n">
-        <v>-25.95221870695176</v>
+        <v>-16.95626254048875</v>
       </c>
       <c r="C145" t="n">
-        <v>-7.482091790515588</v>
+        <v>21.1775707832323</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>-30.42136362238185</v>
+        <v>35.61615160128611</v>
       </c>
       <c r="B146" t="n">
-        <v>-11.01280823636722</v>
+        <v>24.60065913341708</v>
       </c>
       <c r="C146" t="n">
-        <v>-21.23564746846398</v>
+        <v>11.19666688010547</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>-28.96094895726346</v>
+        <v>-6.879148973198459</v>
       </c>
       <c r="B147" t="n">
-        <v>20.01527209262555</v>
+        <v>-24.07391961308917</v>
       </c>
       <c r="C147" t="n">
-        <v>-28.51498109829751</v>
+        <v>33.80946985077515</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>-35.87586062623608</v>
+        <v>24.42242775283352</v>
       </c>
       <c r="B148" t="n">
-        <v>11.11912751731821</v>
+        <v>38.97799517344442</v>
       </c>
       <c r="C148" t="n">
-        <v>-30.48047175715789</v>
+        <v>-24.15544264585609</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>-39.65074251665523</v>
+        <v>-28.44995485461192</v>
       </c>
       <c r="B149" t="n">
-        <v>-29.80593918330477</v>
+        <v>21.79671530541229</v>
       </c>
       <c r="C149" t="n">
-        <v>-20.37769678896569</v>
+        <v>30.19315548258026</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>15.71390231787823</v>
+        <v>19.51974829555968</v>
       </c>
       <c r="B150" t="n">
-        <v>58.47142667996489</v>
+        <v>18.28705064868832</v>
       </c>
       <c r="C150" t="n">
-        <v>-7.517423711213508</v>
+        <v>11.19062953806103</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>-15.00305905310189</v>
+        <v>28.20136022358441</v>
       </c>
       <c r="B151" t="n">
-        <v>10.47831882132263</v>
+        <v>39.42578698004499</v>
       </c>
       <c r="C151" t="n">
-        <v>-16.17782394063848</v>
+        <v>-37.99472572593093</v>
       </c>
     </row>
   </sheetData>
@@ -2139,1107 +2139,1107 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-26.60470824322352</v>
+        <v>-38.85439636222973</v>
       </c>
       <c r="B2" t="n">
-        <v>-28.12242543823019</v>
+        <v>2.18334570990666</v>
       </c>
       <c r="C2" t="n">
-        <v>-23.82294479423857</v>
+        <v>30.86705327930343</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-4.367584304287622</v>
+        <v>-18.23618239709423</v>
       </c>
       <c r="B3" t="n">
-        <v>-24.10023807082835</v>
+        <v>-9.327019879563087</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.229712716196362</v>
+        <v>32.12075834647131</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7.541698718219644</v>
+        <v>-21.74017425936922</v>
       </c>
       <c r="B4" t="n">
-        <v>19.62000913891859</v>
+        <v>17.51029191469757</v>
       </c>
       <c r="C4" t="n">
-        <v>26.75668365180641</v>
+        <v>-20.88541988116993</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>28.48609755080439</v>
+        <v>-15.99540679620292</v>
       </c>
       <c r="B5" t="n">
-        <v>-11.26226885875281</v>
+        <v>-21.4642980970389</v>
       </c>
       <c r="C5" t="n">
-        <v>3.584865720029788</v>
+        <v>-32.00559656936742</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-22.46673524826106</v>
+        <v>-4.885898159398755</v>
       </c>
       <c r="B6" t="n">
-        <v>16.54098771843271</v>
+        <v>13.61575743308648</v>
       </c>
       <c r="C6" t="n">
-        <v>21.23594281999714</v>
+        <v>25.56159699293488</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-27.96282229587164</v>
+        <v>28.09432145167159</v>
       </c>
       <c r="B7" t="n">
-        <v>-31.82193699583297</v>
+        <v>-17.9105664577584</v>
       </c>
       <c r="C7" t="n">
-        <v>28.26079008318319</v>
+        <v>-30.24861309648305</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-31.52955861650779</v>
+        <v>-31.27589848205972</v>
       </c>
       <c r="B8" t="n">
-        <v>17.74297341218197</v>
+        <v>23.33610716307779</v>
       </c>
       <c r="C8" t="n">
-        <v>-33.23320837157502</v>
+        <v>-27.01122251524302</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-33.66814869810903</v>
+        <v>-14.23480264217472</v>
       </c>
       <c r="B9" t="n">
-        <v>31.33441040141616</v>
+        <v>-31.32719688104306</v>
       </c>
       <c r="C9" t="n">
-        <v>28.35062297861247</v>
+        <v>-34.07775677665739</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-10.45219848455761</v>
+        <v>31.3093390650831</v>
       </c>
       <c r="B10" t="n">
-        <v>56.57013060943865</v>
+        <v>-21.40822663494062</v>
       </c>
       <c r="C10" t="n">
-        <v>-26.79957299386614</v>
+        <v>34.9323190632855</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>33.35196258158884</v>
+        <v>-32.78059996365476</v>
       </c>
       <c r="B11" t="n">
-        <v>50.39527421305476</v>
+        <v>14.52126933765585</v>
       </c>
       <c r="C11" t="n">
-        <v>20.14170298246087</v>
+        <v>17.42367976042485</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>23.30913557368938</v>
+        <v>-20.27428592881894</v>
       </c>
       <c r="B12" t="n">
-        <v>-27.66374984382297</v>
+        <v>15.75872385568131</v>
       </c>
       <c r="C12" t="n">
-        <v>-21.49579837854893</v>
+        <v>32.26959625806737</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>92.14082463936192</v>
+        <v>-12.69126065900172</v>
       </c>
       <c r="B13" t="n">
-        <v>-21.53521588009475</v>
+        <v>19.43189694048422</v>
       </c>
       <c r="C13" t="n">
-        <v>12.21307820628461</v>
+        <v>15.61928102922482</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-31.86304944646757</v>
+        <v>-26.83730172098334</v>
       </c>
       <c r="B14" t="n">
-        <v>4.310280348138341</v>
+        <v>25.42756433402013</v>
       </c>
       <c r="C14" t="n">
-        <v>-21.53656601561694</v>
+        <v>-35.65202447579889</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>20.17354792578584</v>
+        <v>-19.25885516397623</v>
       </c>
       <c r="B15" t="n">
-        <v>-24.87810441350262</v>
+        <v>32.07120720846618</v>
       </c>
       <c r="C15" t="n">
-        <v>-27.29514433201219</v>
+        <v>-27.72464009176597</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>27.21334812372572</v>
+        <v>-32.59889193383026</v>
       </c>
       <c r="B16" t="n">
-        <v>-4.0225204065146</v>
+        <v>29.17669160401291</v>
       </c>
       <c r="C16" t="n">
-        <v>49.17535788195379</v>
+        <v>-33.04308228789835</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-27.94185184693748</v>
+        <v>13.23567446916982</v>
       </c>
       <c r="B17" t="n">
-        <v>41.04492618410056</v>
+        <v>-13.28087507571419</v>
       </c>
       <c r="C17" t="n">
-        <v>4.785639710771073</v>
+        <v>-13.55568160227118</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-37.22632208311805</v>
+        <v>-31.62460380022343</v>
       </c>
       <c r="B18" t="n">
-        <v>-26.25169698037698</v>
+        <v>24.57254567223583</v>
       </c>
       <c r="C18" t="n">
-        <v>-34.59795441569334</v>
+        <v>-33.76914065851291</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>8.594301449285743</v>
+        <v>-28.51630045445383</v>
       </c>
       <c r="B19" t="n">
-        <v>-29.19370915057849</v>
+        <v>21.35976781644305</v>
       </c>
       <c r="C19" t="n">
-        <v>35.11917641551393</v>
+        <v>-30.08354527698387</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>33.33570731282359</v>
+        <v>25.45593171191159</v>
       </c>
       <c r="B20" t="n">
-        <v>41.50189486701814</v>
+        <v>34.29315148192232</v>
       </c>
       <c r="C20" t="n">
-        <v>-39.43015054371169</v>
+        <v>18.9492311877024</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-21.37252718592425</v>
+        <v>-7.333749461506679</v>
       </c>
       <c r="B21" t="n">
-        <v>-20.21999401796121</v>
+        <v>-17.49333171949504</v>
       </c>
       <c r="C21" t="n">
-        <v>13.25062238858716</v>
+        <v>14.90696582303384</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4.829265919606962</v>
+        <v>22.59960828201639</v>
       </c>
       <c r="B22" t="n">
-        <v>5.806168391213733</v>
+        <v>-31.94209854901138</v>
       </c>
       <c r="C22" t="n">
-        <v>-37.96249857665545</v>
+        <v>23.90984909354504</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-30.90353841226049</v>
+        <v>38.80584615982526</v>
       </c>
       <c r="B23" t="n">
-        <v>-14.74225874586519</v>
+        <v>-32.81180620642387</v>
       </c>
       <c r="C23" t="n">
-        <v>-23.69184443907362</v>
+        <v>-27.61466945107479</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-38.02760269106579</v>
+        <v>22.11635776259441</v>
       </c>
       <c r="B24" t="n">
-        <v>19.37008912773256</v>
+        <v>-31.64870226840659</v>
       </c>
       <c r="C24" t="n">
-        <v>-26.81632172772569</v>
+        <v>38.09446128189341</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-28.0840655188917</v>
+        <v>-21.59669868454456</v>
       </c>
       <c r="B25" t="n">
-        <v>36.05392813773783</v>
+        <v>23.5416343588318</v>
       </c>
       <c r="C25" t="n">
-        <v>-40.9182938928415</v>
+        <v>-22.31892422006725</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>43.07304459195384</v>
+        <v>21.95157199623315</v>
       </c>
       <c r="B26" t="n">
-        <v>16.9562791361416</v>
+        <v>15.12249841749862</v>
       </c>
       <c r="C26" t="n">
-        <v>29.18560037183106</v>
+        <v>12.95279223585983</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>20.38218785659367</v>
+        <v>-27.23091237807675</v>
       </c>
       <c r="B27" t="n">
-        <v>-37.84318633211615</v>
+        <v>-20.43475503673017</v>
       </c>
       <c r="C27" t="n">
-        <v>4.925077485046918</v>
+        <v>16.23384263322363</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>14.67603453623091</v>
+        <v>4.27683232898311</v>
       </c>
       <c r="B28" t="n">
-        <v>43.89668862033849</v>
+        <v>-12.69512443513094</v>
       </c>
       <c r="C28" t="n">
-        <v>17.30607749070013</v>
+        <v>-37.07166221004439</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>10.87364396701113</v>
+        <v>45.52105577630765</v>
       </c>
       <c r="B29" t="n">
-        <v>26.85452558244569</v>
+        <v>-34.08999543276992</v>
       </c>
       <c r="C29" t="n">
-        <v>-15.91550754795893</v>
+        <v>11.7457789477225</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>46.68366165154981</v>
+        <v>-37.65098979061062</v>
       </c>
       <c r="B30" t="n">
-        <v>-26.34087340457476</v>
+        <v>17.54175561423951</v>
       </c>
       <c r="C30" t="n">
-        <v>-30.21561498878501</v>
+        <v>-36.71714476174449</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-17.72165676131485</v>
+        <v>-18.60620373842084</v>
       </c>
       <c r="B31" t="n">
-        <v>-24.7406133425297</v>
+        <v>36.32975976783631</v>
       </c>
       <c r="C31" t="n">
-        <v>-10.22544051856409</v>
+        <v>-31.53430834922883</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>30.8128590383514</v>
+        <v>35.75987409554243</v>
       </c>
       <c r="B32" t="n">
-        <v>48.95447017600998</v>
+        <v>34.76257888980589</v>
       </c>
       <c r="C32" t="n">
-        <v>26.33154495545055</v>
+        <v>-33.52871105983007</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>46.0522447285616</v>
+        <v>-11.85234408683156</v>
       </c>
       <c r="B33" t="n">
-        <v>-25.75192143950659</v>
+        <v>25.40349517881281</v>
       </c>
       <c r="C33" t="n">
-        <v>-31.81612618812823</v>
+        <v>-19.73294956246744</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-20.04657110385886</v>
+        <v>-28.92628858927004</v>
       </c>
       <c r="B34" t="n">
-        <v>-24.32899463206966</v>
+        <v>18.56950971499154</v>
       </c>
       <c r="C34" t="n">
-        <v>-31.05992450217776</v>
+        <v>-33.40881070908577</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-28.75568390712748</v>
+        <v>-16.83657134911205</v>
       </c>
       <c r="B35" t="n">
-        <v>24.1299096219743</v>
+        <v>-28.77729506525439</v>
       </c>
       <c r="C35" t="n">
-        <v>20.63262461955857</v>
+        <v>-18.29605100913935</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-27.00154641336573</v>
+        <v>-17.54515899007674</v>
       </c>
       <c r="B36" t="n">
-        <v>29.63201125066317</v>
+        <v>29.13104784133482</v>
       </c>
       <c r="C36" t="n">
-        <v>-16.65355312640573</v>
+        <v>26.11100414635134</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-42.70001218525044</v>
+        <v>24.05254133008026</v>
       </c>
       <c r="B37" t="n">
-        <v>-31.75839147214554</v>
+        <v>-16.38693187679888</v>
       </c>
       <c r="C37" t="n">
-        <v>-27.44682601520723</v>
+        <v>-14.91298138011154</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-17.75755949611354</v>
+        <v>28.82807878612645</v>
       </c>
       <c r="B38" t="n">
-        <v>-26.25442059119737</v>
+        <v>-26.98172288075029</v>
       </c>
       <c r="C38" t="n">
-        <v>17.17514413036222</v>
+        <v>23.11714580655669</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>12.09641966261163</v>
+        <v>-23.13357375517117</v>
       </c>
       <c r="B39" t="n">
-        <v>-28.03413834711607</v>
+        <v>39.52912734794577</v>
       </c>
       <c r="C39" t="n">
-        <v>-27.41949439841324</v>
+        <v>-25.42063445305795</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>27.26505109728042</v>
+        <v>19.60988370785876</v>
       </c>
       <c r="B40" t="n">
-        <v>-36.57003202898364</v>
+        <v>27.05937423196135</v>
       </c>
       <c r="C40" t="n">
-        <v>-22.57055421373686</v>
+        <v>-27.64242773671295</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-27.97668381594062</v>
+        <v>26.30620424706948</v>
       </c>
       <c r="B41" t="n">
-        <v>38.55651715386689</v>
+        <v>11.48350025667978</v>
       </c>
       <c r="C41" t="n">
-        <v>17.48946393024324</v>
+        <v>-28.60462542692594</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-24.38790348715802</v>
+        <v>-30.41356417528736</v>
       </c>
       <c r="B42" t="n">
-        <v>-20.72036657767747</v>
+        <v>26.44559859506125</v>
       </c>
       <c r="C42" t="n">
-        <v>-18.24563677312867</v>
+        <v>-25.12787322974078</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>24.71271480394041</v>
+        <v>8.354907404657681</v>
       </c>
       <c r="B43" t="n">
-        <v>-17.03375464771601</v>
+        <v>-15.67448527269558</v>
       </c>
       <c r="C43" t="n">
-        <v>-19.70306007470395</v>
+        <v>-28.09385369399805</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-18.60551319810789</v>
+        <v>-23.43889236731834</v>
       </c>
       <c r="B44" t="n">
-        <v>-25.75069607608345</v>
+        <v>-23.41708998649464</v>
       </c>
       <c r="C44" t="n">
-        <v>-27.77307709111037</v>
+        <v>19.04587190614009</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>22.47550397782004</v>
+        <v>-22.67671309341183</v>
       </c>
       <c r="B45" t="n">
-        <v>53.03856687360322</v>
+        <v>-26.57344628148926</v>
       </c>
       <c r="C45" t="n">
-        <v>41.74299305302262</v>
+        <v>-11.55520226979123</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-22.80290093712938</v>
+        <v>-16.49408456269918</v>
       </c>
       <c r="B46" t="n">
-        <v>-24.35682554559066</v>
+        <v>-26.70597421444031</v>
       </c>
       <c r="C46" t="n">
-        <v>-16.93790910558634</v>
+        <v>13.52337693757359</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-17.16546507209402</v>
+        <v>22.72929173954553</v>
       </c>
       <c r="B47" t="n">
-        <v>46.81857720096236</v>
+        <v>23.36788038363983</v>
       </c>
       <c r="C47" t="n">
-        <v>-18.2318879125242</v>
+        <v>17.44913060891867</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-5.235110022347756</v>
+        <v>-15.7488231446778</v>
       </c>
       <c r="B48" t="n">
-        <v>23.04037459441265</v>
+        <v>-22.01665087122464</v>
       </c>
       <c r="C48" t="n">
-        <v>-12.8543434289856</v>
+        <v>-31.9736944960948</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>7.70037220773698</v>
+        <v>31.93976220550432</v>
       </c>
       <c r="B49" t="n">
-        <v>10.8801356150903</v>
+        <v>-28.25885869725409</v>
       </c>
       <c r="C49" t="n">
-        <v>22.48985984792775</v>
+        <v>-21.56027632171229</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>75.75687011814087</v>
+        <v>30.34340405990665</v>
       </c>
       <c r="B50" t="n">
-        <v>26.61878125068515</v>
+        <v>-7.280415513551049</v>
       </c>
       <c r="C50" t="n">
-        <v>-20.3931006415288</v>
+        <v>25.34978720015895</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-22.98422552294955</v>
+        <v>-12.81544839805053</v>
       </c>
       <c r="B51" t="n">
-        <v>-7.277966174318099</v>
+        <v>-27.22348755089492</v>
       </c>
       <c r="C51" t="n">
-        <v>-32.08789368482113</v>
+        <v>28.31973708618959</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-43.69898900118991</v>
+        <v>21.76775680972504</v>
       </c>
       <c r="B52" t="n">
-        <v>9.957716076342789</v>
+        <v>-14.40480559667861</v>
       </c>
       <c r="C52" t="n">
-        <v>-35.08839647574104</v>
+        <v>14.97750140403174</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-5.248248289037702</v>
+        <v>25.75145684540417</v>
       </c>
       <c r="B53" t="n">
-        <v>25.93230991508107</v>
+        <v>-34.98911280345836</v>
       </c>
       <c r="C53" t="n">
-        <v>-12.02894294981966</v>
+        <v>13.15349437010622</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-25.26729757144783</v>
+        <v>-28.48448607359328</v>
       </c>
       <c r="B54" t="n">
-        <v>21.58606232955526</v>
+        <v>28.52020686706486</v>
       </c>
       <c r="C54" t="n">
-        <v>-17.00916687462535</v>
+        <v>20.21792999909684</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-18.90752224271841</v>
+        <v>-43.20399670764439</v>
       </c>
       <c r="B55" t="n">
-        <v>-26.83946229946464</v>
+        <v>-8.730393684230179</v>
       </c>
       <c r="C55" t="n">
-        <v>29.28532166109566</v>
+        <v>14.22895993138518</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-27.72092504867155</v>
+        <v>-14.56672454461477</v>
       </c>
       <c r="B56" t="n">
-        <v>-28.10585790251019</v>
+        <v>33.04278875165426</v>
       </c>
       <c r="C56" t="n">
-        <v>-20.75852296128367</v>
+        <v>33.76124986312045</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-23.39688852239878</v>
+        <v>-21.50345972191202</v>
       </c>
       <c r="B57" t="n">
-        <v>-20.25623002554958</v>
+        <v>20.08070742707615</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.2376270208393473</v>
+        <v>24.70683582643677</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>35.90703896411856</v>
+        <v>22.705471408423</v>
       </c>
       <c r="B58" t="n">
-        <v>-12.22920509051768</v>
+        <v>-20.84050554950907</v>
       </c>
       <c r="C58" t="n">
-        <v>-29.83262720112368</v>
+        <v>-43.67583024289308</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-20.15136413692069</v>
+        <v>36.66270027610317</v>
       </c>
       <c r="B59" t="n">
-        <v>-25.63281418118384</v>
+        <v>26.35426506889483</v>
       </c>
       <c r="C59" t="n">
-        <v>68.82423647941853</v>
+        <v>-28.2905755279907</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>21.24363241405293</v>
+        <v>25.45088356877962</v>
       </c>
       <c r="B60" t="n">
-        <v>-16.65931190213597</v>
+        <v>-19.59236634050977</v>
       </c>
       <c r="C60" t="n">
-        <v>58.94409948518069</v>
+        <v>22.55374929648205</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-48.54494648334082</v>
+        <v>30.93726134067663</v>
       </c>
       <c r="B61" t="n">
-        <v>44.45070466136232</v>
+        <v>30.89397362612689</v>
       </c>
       <c r="C61" t="n">
-        <v>-11.41507671373396</v>
+        <v>-27.075684983833</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>54.60720719476468</v>
+        <v>-26.43999917234834</v>
       </c>
       <c r="B62" t="n">
-        <v>-37.23768373986572</v>
+        <v>-24.57308292623207</v>
       </c>
       <c r="C62" t="n">
-        <v>-8.622290825063333</v>
+        <v>-20.16683563705353</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>42.12275645279612</v>
+        <v>-30.2255319867889</v>
       </c>
       <c r="B63" t="n">
-        <v>41.38098433755584</v>
+        <v>-39.01183496919667</v>
       </c>
       <c r="C63" t="n">
-        <v>5.444684072906717</v>
+        <v>15.89232933889691</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-18.96940132313865</v>
+        <v>-32.7394615055784</v>
       </c>
       <c r="B64" t="n">
-        <v>4.454974394388207</v>
+        <v>-16.43756821339043</v>
       </c>
       <c r="C64" t="n">
-        <v>32.31540516263507</v>
+        <v>-23.52601091249583</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>22.47874055733967</v>
+        <v>-16.58214523022216</v>
       </c>
       <c r="B65" t="n">
-        <v>-9.122150525047312</v>
+        <v>25.97226674308646</v>
       </c>
       <c r="C65" t="n">
-        <v>-16.96809426657462</v>
+        <v>-23.76928129239112</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-14.27019053533213</v>
+        <v>-29.60634338094856</v>
       </c>
       <c r="B66" t="n">
-        <v>29.87488729815774</v>
+        <v>36.7767005647331</v>
       </c>
       <c r="C66" t="n">
-        <v>23.88428029547716</v>
+        <v>-26.24882207871724</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.92816660128437</v>
+        <v>8.78095457875725</v>
       </c>
       <c r="B67" t="n">
-        <v>15.05124102800992</v>
+        <v>25.7992752709092</v>
       </c>
       <c r="C67" t="n">
-        <v>33.71119993731502</v>
+        <v>43.26871144477235</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-22.74544560523714</v>
+        <v>-7.626452290392882</v>
       </c>
       <c r="B68" t="n">
-        <v>58.17789704606139</v>
+        <v>43.62676071300626</v>
       </c>
       <c r="C68" t="n">
-        <v>-16.17549069800869</v>
+        <v>-21.87323229986555</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>47.82615633658083</v>
+        <v>3.643152696091139</v>
       </c>
       <c r="B69" t="n">
-        <v>-27.12269788127649</v>
+        <v>21.13676621294072</v>
       </c>
       <c r="C69" t="n">
-        <v>-44.88331148457448</v>
+        <v>-32.90858179548588</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>33.94519729945146</v>
+        <v>20.54279406590085</v>
       </c>
       <c r="B70" t="n">
-        <v>-31.70157346923117</v>
+        <v>31.81802492004958</v>
       </c>
       <c r="C70" t="n">
-        <v>6.926806170221041</v>
+        <v>27.0630294286183</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-38.19497333142805</v>
+        <v>34.09467735906915</v>
       </c>
       <c r="B71" t="n">
-        <v>-41.01927018108261</v>
+        <v>-1.297603044397106</v>
       </c>
       <c r="C71" t="n">
-        <v>-38.04546432939441</v>
+        <v>-19.24202850251496</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>9.669520587935986</v>
+        <v>-22.19555400901191</v>
       </c>
       <c r="B72" t="n">
-        <v>-23.4085496626839</v>
+        <v>-26.49919313082683</v>
       </c>
       <c r="C72" t="n">
-        <v>-30.42399274687646</v>
+        <v>26.63134347945013</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>16.48180954849341</v>
+        <v>-16.54559652615905</v>
       </c>
       <c r="B73" t="n">
-        <v>-40.16619702999657</v>
+        <v>-34.95313909344487</v>
       </c>
       <c r="C73" t="n">
-        <v>71.91986146929439</v>
+        <v>-30.06416433193432</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-18.35546415630917</v>
+        <v>-27.17130776289099</v>
       </c>
       <c r="B74" t="n">
-        <v>-28.07734113918308</v>
+        <v>27.46515312237707</v>
       </c>
       <c r="C74" t="n">
-        <v>-31.17049362312235</v>
+        <v>-20.62143709927039</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>24.90413658191393</v>
+        <v>-24.41777514661652</v>
       </c>
       <c r="B75" t="n">
-        <v>-19.52754073497836</v>
+        <v>30.96837677716778</v>
       </c>
       <c r="C75" t="n">
-        <v>15.59797732790056</v>
+        <v>28.50381085597738</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-6.113774899540203</v>
+        <v>16.9184697148619</v>
       </c>
       <c r="B76" t="n">
-        <v>-31.92841504871853</v>
+        <v>33.3602587176947</v>
       </c>
       <c r="C76" t="n">
-        <v>43.35472686324543</v>
+        <v>30.59580483061234</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>22.84273310839397</v>
+        <v>-24.73064830563146</v>
       </c>
       <c r="B77" t="n">
-        <v>38.75113876309225</v>
+        <v>30.41575801286205</v>
       </c>
       <c r="C77" t="n">
-        <v>29.70072420997161</v>
+        <v>-33.98850675500489</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-30.38345461611051</v>
+        <v>28.76279765332914</v>
       </c>
       <c r="B78" t="n">
-        <v>-1.45703665510117</v>
+        <v>19.33325598955117</v>
       </c>
       <c r="C78" t="n">
-        <v>-43.20598290888187</v>
+        <v>-10.16630678908622</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>14.2256709823473</v>
+        <v>16.98431283491516</v>
       </c>
       <c r="B79" t="n">
-        <v>16.16659135637408</v>
+        <v>-6.715522117302596</v>
       </c>
       <c r="C79" t="n">
-        <v>14.35898687926236</v>
+        <v>-26.09938867224265</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-19.17597506254772</v>
+        <v>28.70230471413197</v>
       </c>
       <c r="B80" t="n">
-        <v>54.98890251491476</v>
+        <v>-18.03545246203277</v>
       </c>
       <c r="C80" t="n">
-        <v>-36.39053105352539</v>
+        <v>13.49184858880889</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>53.69697248572019</v>
+        <v>-28.67224321746222</v>
       </c>
       <c r="B81" t="n">
-        <v>22.2873321112299</v>
+        <v>34.34210320585273</v>
       </c>
       <c r="C81" t="n">
-        <v>34.55502393980159</v>
+        <v>38.57776125399396</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>61.39559352532802</v>
+        <v>17.73919344283771</v>
       </c>
       <c r="B82" t="n">
-        <v>-20.55888680634937</v>
+        <v>-27.02948155806522</v>
       </c>
       <c r="C82" t="n">
-        <v>-24.34040333678768</v>
+        <v>30.34919447102896</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-41.49138658081068</v>
+        <v>20.6090900964225</v>
       </c>
       <c r="B83" t="n">
-        <v>37.95363298672016</v>
+        <v>18.08868800949798</v>
       </c>
       <c r="C83" t="n">
-        <v>-10.0367350432244</v>
+        <v>-21.64254185608901</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-17.73537573967322</v>
+        <v>19.03049016011549</v>
       </c>
       <c r="B84" t="n">
-        <v>37.86596247493803</v>
+        <v>4.320068729391388</v>
       </c>
       <c r="C84" t="n">
-        <v>-22.0015689566431</v>
+        <v>-33.53646554221351</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-23.87516568806252</v>
+        <v>-32.73837038481794</v>
       </c>
       <c r="B85" t="n">
-        <v>63.14190180592632</v>
+        <v>25.66893180053081</v>
       </c>
       <c r="C85" t="n">
-        <v>-12.93390345346616</v>
+        <v>26.68099314845573</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-29.0989106470032</v>
+        <v>26.89935371613536</v>
       </c>
       <c r="B86" t="n">
-        <v>-25.43451149521518</v>
+        <v>26.23434128830954</v>
       </c>
       <c r="C86" t="n">
-        <v>-40.11713068153019</v>
+        <v>33.66920675686907</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>34.4489436813423</v>
+        <v>32.17202281221521</v>
       </c>
       <c r="B87" t="n">
-        <v>1.690606027436806</v>
+        <v>-26.19894259375246</v>
       </c>
       <c r="C87" t="n">
-        <v>-8.310257680006901</v>
+        <v>32.8339225417512</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>32.21364492052594</v>
+        <v>24.58508994272395</v>
       </c>
       <c r="B88" t="n">
-        <v>-23.15811462289222</v>
+        <v>-24.01996725260976</v>
       </c>
       <c r="C88" t="n">
-        <v>10.63648915050979</v>
+        <v>29.49744983197528</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-29.49810605249705</v>
+        <v>-27.76939694806226</v>
       </c>
       <c r="B89" t="n">
-        <v>2.847838149596762</v>
+        <v>-39.89796321121631</v>
       </c>
       <c r="C89" t="n">
-        <v>-25.39126323694712</v>
+        <v>22.43311787239353</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-21.94288134533046</v>
+        <v>-24.74140524545394</v>
       </c>
       <c r="B90" t="n">
-        <v>-20.88161793087851</v>
+        <v>21.32117272090889</v>
       </c>
       <c r="C90" t="n">
-        <v>24.96647251440625</v>
+        <v>27.71629745494932</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>3.955499785166176</v>
+        <v>19.01627529014593</v>
       </c>
       <c r="B91" t="n">
-        <v>-27.19784611581926</v>
+        <v>-28.34647347968835</v>
       </c>
       <c r="C91" t="n">
-        <v>-24.72157389180098</v>
+        <v>35.18941403615877</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>6.458008491158994</v>
+        <v>19.00571484498443</v>
       </c>
       <c r="B92" t="n">
-        <v>-24.1224419006786</v>
+        <v>-17.02129974051569</v>
       </c>
       <c r="C92" t="n">
-        <v>48.25854085237734</v>
+        <v>-20.84145029780777</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>24.9618635644248</v>
+        <v>-25.2548840772447</v>
       </c>
       <c r="B93" t="n">
-        <v>41.96573249462209</v>
+        <v>26.22220119197236</v>
       </c>
       <c r="C93" t="n">
-        <v>-13.64823706986002</v>
+        <v>14.98587788497263</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>7.940156223209381</v>
+        <v>-25.08336211352717</v>
       </c>
       <c r="B94" t="n">
-        <v>-3.947910886050802</v>
+        <v>-40.74209891721155</v>
       </c>
       <c r="C94" t="n">
-        <v>-9.010795397009128</v>
+        <v>-20.42330437447178</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>7.200489111312304</v>
+        <v>-33.53702228699875</v>
       </c>
       <c r="B95" t="n">
-        <v>66.45520587538286</v>
+        <v>-30.9789537375464</v>
       </c>
       <c r="C95" t="n">
-        <v>45.31520857816088</v>
+        <v>14.51376797256604</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>13.78673977462251</v>
+        <v>19.1815337911931</v>
       </c>
       <c r="B96" t="n">
-        <v>-26.40277049160676</v>
+        <v>-25.92781028238527</v>
       </c>
       <c r="C96" t="n">
-        <v>15.51245666920953</v>
+        <v>-6.732295776813364</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-23.58273317813475</v>
+        <v>-30.01664894763218</v>
       </c>
       <c r="B97" t="n">
-        <v>77.90023376168834</v>
+        <v>-18.05276606525677</v>
       </c>
       <c r="C97" t="n">
-        <v>-14.16615454988318</v>
+        <v>30.04691160074845</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-16.04246167317566</v>
+        <v>-35.22398564348163</v>
       </c>
       <c r="B98" t="n">
-        <v>46.12939727423799</v>
+        <v>-9.424590985930903</v>
       </c>
       <c r="C98" t="n">
-        <v>23.09002835595365</v>
+        <v>-43.03256075512493</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-19.90362499645168</v>
+        <v>36.68614315565098</v>
       </c>
       <c r="B99" t="n">
-        <v>-8.724305096274676</v>
+        <v>19.70582338631062</v>
       </c>
       <c r="C99" t="n">
-        <v>-25.62644144116251</v>
+        <v>-19.74201005947292</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>46.76016801074881</v>
+        <v>17.54171602826653</v>
       </c>
       <c r="B100" t="n">
-        <v>23.5429249713308</v>
+        <v>-19.00351315944678</v>
       </c>
       <c r="C100" t="n">
-        <v>-15.69484553149183</v>
+        <v>-25.93894796859356</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>15.17304004710565</v>
+        <v>-29.85571046643977</v>
       </c>
       <c r="B101" t="n">
-        <v>-25.80186188694398</v>
+        <v>-15.8615188768521</v>
       </c>
       <c r="C101" t="n">
-        <v>37.82948674486354</v>
+        <v>32.44266005150973</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-20.60885437642905</v>
+        <v>-20.27605289933656</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>33.4926792275409</v>
+        <v>-28.17258723121623</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -3261,7 +3261,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-36.86553809441799</v>
+        <v>39.80341359266919</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>70.37577011908139</v>
+        <v>35.64372709640212</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-12.95593694226869</v>
+        <v>-29.9533558280146</v>
       </c>
       <c r="B106" t="n">
         <v>0</v>
@@ -3294,7 +3294,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-47.09043567660638</v>
+        <v>32.01686787539909</v>
       </c>
       <c r="B107" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>57.23773547393398</v>
+        <v>8.646364472655732</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>11.43226266511495</v>
+        <v>-28.78161721549114</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -3327,7 +3327,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-27.45743926295653</v>
+        <v>35.22827393533769</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -3338,7 +3338,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-21.60451621150225</v>
+        <v>30.35673224541591</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -3349,7 +3349,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>41.37470186285516</v>
+        <v>-28.48851189969206</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>34.63668441423108</v>
+        <v>-27.08345000548907</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -3371,7 +3371,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>62.80157471373096</v>
+        <v>-19.5819835232242</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -3382,7 +3382,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-8.783468503058641</v>
+        <v>-19.82178128215505</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-14.50069468011553</v>
+        <v>18.4435702595132</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -3404,7 +3404,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-6.409378681680187</v>
+        <v>30.82279518950815</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>47.41668017030962</v>
+        <v>7.673256803292999</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-5.427654829692308</v>
+        <v>26.85171340056954</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -3437,7 +3437,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-38.30905391036432</v>
+        <v>-27.44237599067878</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -3448,7 +3448,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-37.48466638150421</v>
+        <v>-35.0230476561853</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -3459,7 +3459,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>7.155923011555736</v>
+        <v>-28.15465201676832</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-0.9171708904011104</v>
+        <v>27.26961247443582</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.7201593545383529</v>
+        <v>29.52941115029248</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-26.3625788176286</v>
+        <v>36.32546924337048</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -3503,7 +3503,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-39.33938029707554</v>
+        <v>-34.7812271783764</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>12.01202559825589</v>
+        <v>32.02476606145883</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -3525,7 +3525,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>15.82750720740698</v>
+        <v>-24.46520491171256</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -3536,7 +3536,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1.20514849978132</v>
+        <v>-18.66283215526346</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -3547,7 +3547,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-19.79418762514026</v>
+        <v>35.51990734063316</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -3558,7 +3558,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-31.52600297379624</v>
+        <v>-20.59277055925574</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>14.46189366792167</v>
+        <v>-15.79343965916719</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -3580,7 +3580,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>6.586595895846934</v>
+        <v>-33.24215712895757</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -3591,7 +3591,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-26.30342993485924</v>
+        <v>-20.28453052488326</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-26.20533289515904</v>
+        <v>14.6242816283245</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -3613,7 +3613,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.600337144535793</v>
+        <v>16.52951913260201</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -3624,7 +3624,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-28.07933364664828</v>
+        <v>-18.79092047767137</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.3746927401774465</v>
+        <v>-25.25135708556567</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -3646,7 +3646,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>-33.16210287993355</v>
+        <v>25.08313122052455</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -3657,7 +3657,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-18.58169278065658</v>
+        <v>-11.59730221052933</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>35.06365047141389</v>
+        <v>-22.73112831449352</v>
       </c>
       <c r="B141" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>-32.45078086592873</v>
+        <v>14.37078984060738</v>
       </c>
       <c r="B142" t="n">
         <v>0</v>
@@ -3690,7 +3690,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>-35.50860980075372</v>
+        <v>-43.54008500551696</v>
       </c>
       <c r="B143" t="n">
         <v>0</v>
@@ -3701,7 +3701,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>53.69184386704633</v>
+        <v>-20.27380661274033</v>
       </c>
       <c r="B144" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>15.72258395815762</v>
+        <v>-31.63500513278458</v>
       </c>
       <c r="B145" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>-42.16081841869684</v>
+        <v>18.25388145170385</v>
       </c>
       <c r="B146" t="n">
         <v>0</v>
@@ -3734,7 +3734,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>18.07911739928662</v>
+        <v>17.74973444837445</v>
       </c>
       <c r="B147" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>-21.74536755168732</v>
+        <v>-33.15523552511043</v>
       </c>
       <c r="B148" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>-11.98768436749799</v>
+        <v>7.019021077620762</v>
       </c>
       <c r="B149" t="n">
         <v>0</v>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>-34.03624476672478</v>
+        <v>28.98180491106799</v>
       </c>
       <c r="B150" t="n">
         <v>0</v>
@@ -3778,7 +3778,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>27.29648117800997</v>
+        <v>-21.09961473976796</v>
       </c>
       <c r="B151" t="n">
         <v>0</v>
